--- a/BalanceSheet/DOV_bal.xlsx
+++ b/BalanceSheet/DOV_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-75421000.0</v>
+        <v>901000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>29879000.0</v>
+        <v>836000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>61523000.0</v>
+        <v>839000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-18947000.0</v>
+        <v>886000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-61936000.0</v>
+        <v>852000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>806141000.0</v>
@@ -1715,19 +1715,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>63766000.0</v>
+        <v>911000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-3565000.0</v>
+        <v>854000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-20062000.0</v>
+        <v>900000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-46764000.0</v>
+        <v>913000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-25245000.0</v>
+        <v>947000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>920593000.0</v>
@@ -3137,13 +3137,13 @@
         <v>314000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-1081000.0</v>
+        <v>389000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-41840000.0</v>
+        <v>305000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>17278000.0</v>
+        <v>319000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>339000000.0</v>
